--- a/Excel/cars_visualization.xlsx
+++ b/Excel/cars_visualization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgras\CS480x-A2\02-DataVis-5Ways\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C6B45E-C8F8-4F74-8654-B3C85989AFF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{333701C3-1EAC-4314-8C9B-E9803D9C4259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,15 +960,15 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'cars-sample'!$L$2:$L$3</c:f>
+              <c:f>'cars-sample'!$H$2:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>2234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1336,168 +1336,168 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'cars-sample'!$L$4:$L$56</c:f>
+              <c:f>'cars-sample'!$H$4:$H$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>3000</c:v>
+                  <c:v>3449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>4341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4034</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3000</c:v>
+                  <c:v>3353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>2587</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4000</c:v>
+                  <c:v>4615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3000</c:v>
+                  <c:v>3302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000</c:v>
+                  <c:v>4154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000</c:v>
+                  <c:v>4746</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3000</c:v>
+                  <c:v>3139</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2000</c:v>
+                  <c:v>2226</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4000</c:v>
+                  <c:v>4129</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4000</c:v>
+                  <c:v>4294</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2000</c:v>
+                  <c:v>2395</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000</c:v>
+                  <c:v>4042</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4000</c:v>
+                  <c:v>4363</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3000</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4000</c:v>
+                  <c:v>4906</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2310</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>2875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2000</c:v>
+                  <c:v>2451</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4000</c:v>
+                  <c:v>4141</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4000</c:v>
+                  <c:v>4638</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3000</c:v>
+                  <c:v>3158</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4000</c:v>
+                  <c:v>4657</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3000</c:v>
+                  <c:v>3169</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2000</c:v>
+                  <c:v>2639</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2000</c:v>
+                  <c:v>2984</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4000</c:v>
+                  <c:v>4215</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3000</c:v>
+                  <c:v>3012</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3000</c:v>
+                  <c:v>3574</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2000</c:v>
+                  <c:v>2565</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3000</c:v>
+                  <c:v>3870</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3000</c:v>
+                  <c:v>3525</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4000</c:v>
+                  <c:v>4335</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2000</c:v>
+                  <c:v>2755</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1000</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2000</c:v>
+                  <c:v>2965</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2000</c:v>
+                  <c:v>2720</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3000</c:v>
+                  <c:v>3205</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2000</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3000</c:v>
+                  <c:v>3725</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4000</c:v>
+                  <c:v>4054</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2000</c:v>
+                  <c:v>2870</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2000</c:v>
+                  <c:v>2905</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2000</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2000</c:v>
+                  <c:v>2380</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3000</c:v>
+                  <c:v>3060</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2000</c:v>
+                  <c:v>2865</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2000</c:v>
+                  <c:v>2835</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2000</c:v>
+                  <c:v>2790</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2000</c:v>
+                  <c:v>2625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,48 +1625,48 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'cars-sample'!$L$57:$L$69</c:f>
+              <c:f>'cars-sample'!$H$57:$H$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>2489</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>1795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>2135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000</c:v>
+                  <c:v>2290</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2210</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2000</c:v>
+                  <c:v>2205</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1000</c:v>
+                  <c:v>1965</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1000</c:v>
+                  <c:v>1965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,18 +1734,18 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'cars-sample'!$L$70:$L$72</c:f>
+              <c:f>'cars-sample'!$H$70:$H$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3000</c:v>
+                  <c:v>3820</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3000</c:v>
+                  <c:v>3530</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000</c:v>
+                  <c:v>3250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1951,87 +1951,87 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'cars-sample'!$L$73:$L$98</c:f>
+              <c:f>'cars-sample'!$H$73:$H$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>2372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>1773</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
+                  <c:v>2278</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>2506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>2279</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000</c:v>
+                  <c:v>2807</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>1836</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1649</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2000</c:v>
+                  <c:v>2171</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2000</c:v>
+                  <c:v>2702</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2000</c:v>
+                  <c:v>2155</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2000</c:v>
+                  <c:v>2930</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2000</c:v>
+                  <c:v>2265</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2000</c:v>
+                  <c:v>2560</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2000</c:v>
+                  <c:v>2515</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1000</c:v>
+                  <c:v>1968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2000</c:v>
+                  <c:v>2711</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>2265</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1000</c:v>
+                  <c:v>1755</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2000</c:v>
+                  <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2000</c:v>
+                  <c:v>2350</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2000</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2000</c:v>
+                  <c:v>2245</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2000</c:v>
+                  <c:v>2665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3293,7 +3293,7 @@
   <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel/cars_visualization.xlsx
+++ b/Excel/cars_visualization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgras\CS480x-A2\02-DataVis-5Ways\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{333701C3-1EAC-4314-8C9B-E9803D9C4259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA586C9B-6535-4515-ACB8-F7ED7B63A385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="86">
   <si>
     <t>Car</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>ranger</t>
-  </si>
-  <si>
-    <t>bubble plot</t>
   </si>
 </sst>
 </file>
@@ -3290,15 +3287,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3329,11 +3326,8 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>30</v>
       </c>
@@ -3367,11 +3361,8 @@
       <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="L2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>250</v>
       </c>
@@ -3405,11 +3396,8 @@
       <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="L3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -3443,11 +3431,8 @@
       <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="L4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -3481,11 +3466,8 @@
       <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="L5">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>13</v>
       </c>
@@ -3519,11 +3501,8 @@
       <c r="K6" t="s">
         <v>12</v>
       </c>
-      <c r="L6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18</v>
       </c>
@@ -3557,11 +3536,8 @@
       <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>24</v>
       </c>
@@ -3595,11 +3571,8 @@
       <c r="K8" t="s">
         <v>12</v>
       </c>
-      <c r="L8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>32</v>
       </c>
@@ -3633,11 +3606,8 @@
       <c r="K9" t="s">
         <v>12</v>
       </c>
-      <c r="L9">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>39</v>
       </c>
@@ -3671,11 +3641,8 @@
       <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="L10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>44</v>
       </c>
@@ -3709,11 +3676,8 @@
       <c r="K11" t="s">
         <v>12</v>
       </c>
-      <c r="L11">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>48</v>
       </c>
@@ -3747,11 +3711,8 @@
       <c r="K12" t="s">
         <v>12</v>
       </c>
-      <c r="L12">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>51</v>
       </c>
@@ -3785,11 +3746,8 @@
       <c r="K13" t="s">
         <v>12</v>
       </c>
-      <c r="L13">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>56</v>
       </c>
@@ -3823,11 +3781,8 @@
       <c r="K14" t="s">
         <v>12</v>
       </c>
-      <c r="L14">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>69</v>
       </c>
@@ -3861,11 +3816,8 @@
       <c r="K15" t="s">
         <v>12</v>
       </c>
-      <c r="L15">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>73</v>
       </c>
@@ -3899,11 +3851,8 @@
       <c r="K16" t="s">
         <v>12</v>
       </c>
-      <c r="L16">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>82</v>
       </c>
@@ -3937,11 +3886,8 @@
       <c r="K17" t="s">
         <v>12</v>
       </c>
-      <c r="L17">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>88</v>
       </c>
@@ -3975,11 +3921,8 @@
       <c r="K18" t="s">
         <v>12</v>
       </c>
-      <c r="L18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>96</v>
       </c>
@@ -4013,11 +3956,8 @@
       <c r="K19" t="s">
         <v>12</v>
       </c>
-      <c r="L19">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>100</v>
       </c>
@@ -4051,11 +3991,8 @@
       <c r="K20" t="s">
         <v>12</v>
       </c>
-      <c r="L20">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>108</v>
       </c>
@@ -4089,11 +4026,8 @@
       <c r="K21" t="s">
         <v>12</v>
       </c>
-      <c r="L21">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>112</v>
       </c>
@@ -4127,11 +4061,8 @@
       <c r="K22" t="s">
         <v>12</v>
       </c>
-      <c r="L22">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>120</v>
       </c>
@@ -4165,11 +4096,8 @@
       <c r="K23" t="s">
         <v>12</v>
       </c>
-      <c r="L23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>134</v>
       </c>
@@ -4203,11 +4131,8 @@
       <c r="K24" t="s">
         <v>12</v>
       </c>
-      <c r="L24">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>138</v>
       </c>
@@ -4241,11 +4166,8 @@
       <c r="K25" t="s">
         <v>12</v>
       </c>
-      <c r="L25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>144</v>
       </c>
@@ -4279,11 +4201,8 @@
       <c r="K26" t="s">
         <v>12</v>
       </c>
-      <c r="L26">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>147</v>
       </c>
@@ -4317,11 +4236,8 @@
       <c r="K27" t="s">
         <v>12</v>
       </c>
-      <c r="L27">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>163</v>
       </c>
@@ -4355,11 +4271,8 @@
       <c r="K28" t="s">
         <v>12</v>
       </c>
-      <c r="L28">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>167</v>
       </c>
@@ -4393,11 +4306,8 @@
       <c r="K29" t="s">
         <v>12</v>
       </c>
-      <c r="L29">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>174</v>
       </c>
@@ -4431,11 +4341,8 @@
       <c r="K30" t="s">
         <v>12</v>
       </c>
-      <c r="L30">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>176</v>
       </c>
@@ -4469,11 +4376,8 @@
       <c r="K31" t="s">
         <v>12</v>
       </c>
-      <c r="L31">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>182</v>
       </c>
@@ -4507,11 +4411,8 @@
       <c r="K32" t="s">
         <v>12</v>
       </c>
-      <c r="L32">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>198</v>
       </c>
@@ -4545,11 +4446,8 @@
       <c r="K33" t="s">
         <v>12</v>
       </c>
-      <c r="L33">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>201</v>
       </c>
@@ -4583,11 +4481,8 @@
       <c r="K34" t="s">
         <v>12</v>
       </c>
-      <c r="L34">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>208</v>
       </c>
@@ -4621,11 +4516,8 @@
       <c r="K35" t="s">
         <v>12</v>
       </c>
-      <c r="L35">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>214</v>
       </c>
@@ -4659,11 +4551,8 @@
       <c r="K36" t="s">
         <v>12</v>
       </c>
-      <c r="L36">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>222</v>
       </c>
@@ -4697,11 +4586,8 @@
       <c r="K37" t="s">
         <v>12</v>
       </c>
-      <c r="L37">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>236</v>
       </c>
@@ -4735,11 +4621,8 @@
       <c r="K38" t="s">
         <v>12</v>
       </c>
-      <c r="L38">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>240</v>
       </c>
@@ -4773,11 +4656,8 @@
       <c r="K39" t="s">
         <v>12</v>
       </c>
-      <c r="L39">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>244</v>
       </c>
@@ -4811,11 +4691,8 @@
       <c r="K40" t="s">
         <v>12</v>
       </c>
-      <c r="L40">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>253</v>
       </c>
@@ -4849,11 +4726,8 @@
       <c r="K41" t="s">
         <v>12</v>
       </c>
-      <c r="L41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>262</v>
       </c>
@@ -4887,11 +4761,8 @@
       <c r="K42" t="s">
         <v>12</v>
       </c>
-      <c r="L42">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>263</v>
       </c>
@@ -4925,11 +4796,8 @@
       <c r="K43" t="s">
         <v>12</v>
       </c>
-      <c r="L43">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>272</v>
       </c>
@@ -4963,11 +4831,8 @@
       <c r="K44" t="s">
         <v>12</v>
       </c>
-      <c r="L44">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>290</v>
       </c>
@@ -5001,11 +4866,8 @@
       <c r="K45" t="s">
         <v>12</v>
       </c>
-      <c r="L45">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>294</v>
       </c>
@@ -5039,11 +4901,8 @@
       <c r="K46" t="s">
         <v>12</v>
       </c>
-      <c r="L46">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>298</v>
       </c>
@@ -5077,11 +4936,8 @@
       <c r="K47" t="s">
         <v>12</v>
       </c>
-      <c r="L47">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>322</v>
       </c>
@@ -5115,11 +4971,8 @@
       <c r="K48" t="s">
         <v>12</v>
       </c>
-      <c r="L48">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>344</v>
       </c>
@@ -5153,11 +5006,8 @@
       <c r="K49" t="s">
         <v>12</v>
       </c>
-      <c r="L49">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>359</v>
       </c>
@@ -5191,11 +5041,8 @@
       <c r="K50" t="s">
         <v>12</v>
       </c>
-      <c r="L50">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>360</v>
       </c>
@@ -5229,11 +5076,8 @@
       <c r="K51" t="s">
         <v>12</v>
       </c>
-      <c r="L51">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>374</v>
       </c>
@@ -5267,11 +5111,8 @@
       <c r="K52" t="s">
         <v>12</v>
       </c>
-      <c r="L52">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>382</v>
       </c>
@@ -5305,11 +5146,8 @@
       <c r="K53" t="s">
         <v>12</v>
       </c>
-      <c r="L53">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>398</v>
       </c>
@@ -5343,11 +5181,8 @@
       <c r="K54" t="s">
         <v>12</v>
       </c>
-      <c r="L54">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>402</v>
       </c>
@@ -5381,11 +5216,8 @@
       <c r="K55" t="s">
         <v>12</v>
       </c>
-      <c r="L55">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>405</v>
       </c>
@@ -5419,11 +5251,8 @@
       <c r="K56" t="s">
         <v>12</v>
       </c>
-      <c r="L56">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>157</v>
       </c>
@@ -5457,11 +5286,8 @@
       <c r="K57" t="s">
         <v>19</v>
       </c>
-      <c r="L57">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>189</v>
       </c>
@@ -5495,11 +5321,8 @@
       <c r="K58" t="s">
         <v>19</v>
       </c>
-      <c r="L58">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>206</v>
       </c>
@@ -5533,11 +5356,8 @@
       <c r="K59" t="s">
         <v>19</v>
       </c>
-      <c r="L59">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>224</v>
       </c>
@@ -5571,11 +5391,8 @@
       <c r="K60" t="s">
         <v>19</v>
       </c>
-      <c r="L60">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>256</v>
       </c>
@@ -5609,11 +5426,8 @@
       <c r="K61" t="s">
         <v>19</v>
       </c>
-      <c r="L61">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>287</v>
       </c>
@@ -5647,11 +5461,8 @@
       <c r="K62" t="s">
         <v>19</v>
       </c>
-      <c r="L62">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>337</v>
       </c>
@@ -5685,11 +5496,8 @@
       <c r="K63" t="s">
         <v>19</v>
       </c>
-      <c r="L63">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>345</v>
       </c>
@@ -5723,11 +5531,8 @@
       <c r="K64" t="s">
         <v>19</v>
       </c>
-      <c r="L64">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>353</v>
       </c>
@@ -5761,11 +5566,8 @@
       <c r="K65" t="s">
         <v>19</v>
       </c>
-      <c r="L65">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>363</v>
       </c>
@@ -5799,11 +5601,8 @@
       <c r="K66" t="s">
         <v>19</v>
       </c>
-      <c r="L66">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>390</v>
       </c>
@@ -5837,11 +5636,8 @@
       <c r="K67" t="s">
         <v>19</v>
       </c>
-      <c r="L67">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>392</v>
       </c>
@@ -5875,11 +5671,8 @@
       <c r="K68" t="s">
         <v>19</v>
       </c>
-      <c r="L68">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>393</v>
       </c>
@@ -5913,11 +5706,8 @@
       <c r="K69" t="s">
         <v>19</v>
       </c>
-      <c r="L69">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>219</v>
       </c>
@@ -5951,11 +5741,8 @@
       <c r="K70" t="s">
         <v>22</v>
       </c>
-      <c r="L70">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>305</v>
       </c>
@@ -5989,11 +5776,8 @@
       <c r="K71" t="s">
         <v>22</v>
       </c>
-      <c r="L71">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>336</v>
       </c>
@@ -6027,11 +5811,8 @@
       <c r="K72" t="s">
         <v>22</v>
       </c>
-      <c r="L72">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>21</v>
       </c>
@@ -6065,11 +5846,8 @@
       <c r="K73" t="s">
         <v>19</v>
       </c>
-      <c r="L73">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>38</v>
       </c>
@@ -6103,11 +5881,8 @@
       <c r="K74" t="s">
         <v>19</v>
       </c>
-      <c r="L74">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>61</v>
       </c>
@@ -6141,11 +5916,8 @@
       <c r="K75" t="s">
         <v>19</v>
       </c>
-      <c r="L75">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>65</v>
       </c>
@@ -6179,11 +5951,8 @@
       <c r="K76" t="s">
         <v>19</v>
       </c>
-      <c r="L76">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>90</v>
       </c>
@@ -6217,11 +5986,8 @@
       <c r="K77" t="s">
         <v>19</v>
       </c>
-      <c r="L77">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>92</v>
       </c>
@@ -6255,11 +6021,8 @@
       <c r="K78" t="s">
         <v>19</v>
       </c>
-      <c r="L78">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>116</v>
       </c>
@@ -6293,11 +6056,8 @@
       <c r="K79" t="s">
         <v>19</v>
       </c>
-      <c r="L79">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>131</v>
       </c>
@@ -6331,11 +6091,8 @@
       <c r="K80" t="s">
         <v>19</v>
       </c>
-      <c r="L80">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>139</v>
       </c>
@@ -6369,11 +6126,8 @@
       <c r="K81" t="s">
         <v>19</v>
       </c>
-      <c r="L81">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>152</v>
       </c>
@@ -6407,11 +6161,8 @@
       <c r="K82" t="s">
         <v>19</v>
       </c>
-      <c r="L82">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>175</v>
       </c>
@@ -6445,11 +6196,8 @@
       <c r="K83" t="s">
         <v>19</v>
       </c>
-      <c r="L83">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>179</v>
       </c>
@@ -6483,11 +6231,8 @@
       <c r="K84" t="s">
         <v>19</v>
       </c>
-      <c r="L84">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>213</v>
       </c>
@@ -6521,11 +6266,8 @@
       <c r="K85" t="s">
         <v>19</v>
       </c>
-      <c r="L85">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>218</v>
       </c>
@@ -6559,11 +6301,8 @@
       <c r="K86" t="s">
         <v>19</v>
       </c>
-      <c r="L86">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>243</v>
       </c>
@@ -6597,11 +6336,8 @@
       <c r="K87" t="s">
         <v>19</v>
       </c>
-      <c r="L87">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>275</v>
       </c>
@@ -6635,11 +6371,8 @@
       <c r="K88" t="s">
         <v>19</v>
       </c>
-      <c r="L88">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>278</v>
       </c>
@@ -6673,11 +6406,8 @@
       <c r="K89" t="s">
         <v>19</v>
       </c>
-      <c r="L89">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>318</v>
       </c>
@@ -6711,11 +6441,8 @@
       <c r="K90" t="s">
         <v>19</v>
       </c>
-      <c r="L90">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>326</v>
       </c>
@@ -6749,11 +6476,8 @@
       <c r="K91" t="s">
         <v>19</v>
       </c>
-      <c r="L91">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>329</v>
       </c>
@@ -6787,11 +6511,8 @@
       <c r="K92" t="s">
         <v>19</v>
       </c>
-      <c r="L92">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>351</v>
       </c>
@@ -6825,11 +6546,8 @@
       <c r="K93" t="s">
         <v>19</v>
       </c>
-      <c r="L93">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>356</v>
       </c>
@@ -6863,11 +6581,8 @@
       <c r="K94" t="s">
         <v>19</v>
       </c>
-      <c r="L94">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>364</v>
       </c>
@@ -6901,11 +6616,8 @@
       <c r="K95" t="s">
         <v>19</v>
       </c>
-      <c r="L95">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>370</v>
       </c>
@@ -6939,11 +6651,8 @@
       <c r="K96" t="s">
         <v>19</v>
       </c>
-      <c r="L96">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>391</v>
       </c>
@@ -6977,11 +6686,8 @@
       <c r="K97" t="s">
         <v>19</v>
       </c>
-      <c r="L97">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>399</v>
       </c>
@@ -7014,9 +6720,6 @@
       </c>
       <c r="K98" t="s">
         <v>19</v>
-      </c>
-      <c r="L98">
-        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/cars_visualization.xlsx
+++ b/Excel/cars_visualization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgras\CS480x-A2\02-DataVis-5Ways\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA586C9B-6535-4515-ACB8-F7ED7B63A385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C88E9A09-8F94-47FC-9395-F5D17A4BEE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3290,7 +3290,7 @@
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
